--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/59_Muğla_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/59_Muğla_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB63100-7F91-4E97-AD55-8D41E54FBAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{833A3A9C-4C2C-4D8E-8ADE-A75DF2DE74F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{832FA4A2-AD5C-4114-9DC6-3F1105F3FC95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{3E8B8513-6679-435B-9AA7-5351FB3EE22A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -982,13 +982,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{03A04FCE-42C5-4869-99ED-D3CDC73F70C5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{62948748-0304-4E61-80AB-D6761010DEF0}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7944B2D3-2C26-46A9-A269-858FD28D2C91}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1004CC17-9B78-40F7-8618-BAA1C05554F4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{330C9B76-66D8-4E8B-8DF0-F0EEF85F0B44}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D55FA838-4789-49A4-8FDA-B8D8456103C5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CF77C7C8-5C74-4324-B44D-5A96632FB0EE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6BA33746-1147-4C87-87F8-28766292C4DA}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3E919CB9-A5D8-4BD1-BA39-4A2FAA68E779}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{212F52E1-123C-4B60-8A2C-44AB1CCCE290}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{ABCEC1AA-A687-4435-AADA-85F55C97F19D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{56CB8B17-7796-48E8-AF60-EE6C01A1121A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{A4819712-BA4D-45BE-84A8-BD8904979737}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0867D00D-5F7A-4833-8428-A90922300374}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1358,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A52DA-7EFD-403A-A240-9C8715B4986B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF6C717-27B6-401A-849C-5C0674AD1C51}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2630,18 +2630,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D09AD9E-3493-43C1-8F66-6144CAF6C722}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4FE7E83-13DD-45E7-82DE-6F9EF3E31EE9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA87B48B-7C21-4112-9F25-D11FCE77EE6B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA17AF3F-CDE5-448D-9AE8-F3D60AA0BF1A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{493FA792-2AEB-4C4D-9D6D-E0C768067514}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1BD7FD2F-1269-4595-9FDC-91CF7A4D201E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{388B11C5-4E6A-41D7-B10B-0EC941678BFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF4C95E6-B127-418B-801A-63DABBE9C353}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1ABE4C59-7244-41F4-A0ED-19AABB09A4ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DAB6DC01-6AE5-4546-A598-BCECE0DC9A1C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B3161CE-9A26-408E-83DC-92A6E89519C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9179CFCF-D180-446D-BBF4-D69EA3F79CD4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0485EFA-0297-42FB-9B97-BDA1A77627D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34184139-2C65-4B2C-808C-5532D2B88285}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{596C1A90-3484-489D-AC0A-F1EE392A48E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77F8A8F0-09BF-4380-BEC0-B3D5EA19044C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{66CE3B59-1CCC-4229-8EEE-0603A69357AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D0D5ADC-AE84-43F6-9BDE-F844D733DDF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD4BE7CE-6517-4DAC-8DCA-E9759467BE85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7836B3F8-4456-444A-8711-3F4A17A5A82E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17013F21-D8A8-4DA9-8813-2D34DCA0ED6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{349E9C22-CA67-4F52-992A-B5FF1DBF9D6C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77709BB8-B65D-4FCB-870E-C57B3CE3D46F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43078052-DFED-4731-9D09-2E647F5CB966}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2654,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3296E269-D8CD-41CD-BC3D-0309F60677CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24518837-0CA9-4308-BE5B-91C3720D40F1}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3916,18 +3916,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BAD7886-84F1-40D5-ABC3-253C50F76804}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{401CC2A1-6EA4-49CB-8CEE-C7DE5789D617}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D5FCFC9-3BCA-43DD-A321-3D4BE86BA503}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9F05D04-7096-4A39-9BF7-E69B2BFF2F4D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{10C9B875-EF07-412E-AF20-4448E14C7920}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5BC5493-07D9-48A6-B145-A3C6CB6B398D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A08F65BD-24AF-4D32-A31F-84A6445F851D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21757978-68AB-471B-8166-5D24B6658C21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C8D94AF-EF0F-4874-A4A7-98C024481498}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8195F53B-562F-441E-9767-31E4C63CEE68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{856742DB-F2C3-420A-A9DC-90C394E1F6CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0C40E69-F0E1-41BC-B0EA-60292C2D25F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{482C3F00-A50F-48D5-9D82-2E949DC9AF7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11067401-E5EA-4A85-977F-8F76BF0A2E78}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2445A4F1-B701-45E9-9DEC-C7AE71402B88}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAB7F913-A8D2-49CE-BC4C-285BA9503360}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E85A533A-1FFA-46EB-9146-8DD7604944DC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B9E24429-F101-4373-8543-6FB61F4E8F96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDCC2FC3-1D5D-4F8B-8334-2B463AF2BBF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADF50536-194C-4A2B-B68F-B39D605AE636}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6874A30-11D9-4A0B-A16B-C42CA41E617C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D461D60E-67A2-48B5-B9D0-0470675AB927}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40E7F727-CDF6-41E4-BA66-0E927DE341EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDE56252-0AFB-47D7-B354-99C7486E46D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3940,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D062EE-A937-49F1-8502-FF0A25446BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8790F5-0ACF-4F97-A681-B361097BCB90}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5202,18 +5202,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1FA73ED-96EF-485B-819E-9C3D658DEEDC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDBDBBEB-64D4-4D4F-9E89-FE2B6CBBC3D1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25EE97FF-8DBD-4AE2-9D1C-522CA1619BA6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17FACEC2-0F9C-4DE4-82F7-35233779AF02}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{09E4C344-08A5-4B08-BA17-2C4E4CC7F3B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17881557-3DD2-463A-9551-B052B7CAFF89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{387F71FF-6B79-42EC-AD0F-0E432067EE47}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D715A19B-0A35-4180-9728-73365E4E35F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F34E50ED-8755-4A3C-AD0D-608D52D775D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0982F281-573B-4D37-B036-13115B95D2A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{547F72FE-37FC-4CB6-9FB7-04E5E543DEA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F81FC7B-BDDE-4755-A715-B028406BC338}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8116157-89DD-4111-86ED-CF298848AF2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{233930FE-4199-4B73-ABC8-ED901802CAAA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBD93C8D-D274-401C-9D7D-1E7905ED0EC4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1334C27F-1036-4284-B3A1-78FF367D6FA3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C516EDF7-BEB2-44F9-9960-9730DD563EEE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A221B90-56D7-4688-9175-1B0E75AB8263}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E061D90-637D-46F6-B284-049B96A0275F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71265633-40B6-4056-941A-C21E5C07CE5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3F42C03-5B44-4B6B-A650-22D0F1119B38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14180C62-3E91-493B-861C-84933B6E662D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A35EF34-734B-4098-A129-DA974CABBDF0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D073FAC1-FE88-4F45-90C2-9B2F16BBEAA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5226,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDA4E8-B44C-4D22-8634-06FEAA248EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392B6FF-FF9F-49E1-AAF7-4986B7A25A1F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6482,18 +6482,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48502BED-4BFB-49A2-8EE5-BD7AEA234CB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A419FFE7-41E8-4825-B06C-D48B1C37AF5F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DF9F1284-25A4-4672-97A6-0AFCEB08D01A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFDEB690-127F-4C35-B9B4-CCAC6EE21FFE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C9E0D0D4-4C5E-47C6-9E3B-821E3A7401C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{522F4702-401C-4820-8394-FF0F6EA02245}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{148435E1-5260-4E2F-964E-F3090A03CAAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5132E5DE-9647-4863-A9F6-D5DF6FD03161}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D157E119-040A-4E40-AC4F-E64A5DE11FBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{648CDE8A-78CE-4233-95E8-01DDE512AE08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1379683B-FA28-4CF6-81A5-DB1A5D4B5634}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04DAD299-B480-4EAA-A4AD-0A8860D8D52B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63512254-C0D0-4F51-9FDD-6BC451A12649}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{109F5133-1B53-42E3-93F2-52A54F887AF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B0CE5D77-0B73-47ED-AF70-4CC4ABC77504}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0AEAA31-F6B0-4A6C-BC6A-5840BFAD939B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{99A48E3D-2644-4A8E-9FBD-8F3C7098FCDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1BF8229-4A2B-4296-92A7-72969D6BEBAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{095F8764-E2A9-41B5-96F2-9F7E1BC0DD86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD322B24-9712-4BFD-9530-6361EEA90533}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0BAF896-0545-4825-9CA1-71FCE02834BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A40A3EE-38B0-471A-9D55-0371A12F89F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F327744-F8FE-4349-9482-83AC7FD1E632}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9C59420-A9C7-49CB-AB31-1AFD2F07A109}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6506,7 +6506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CDDFB7-12B2-412C-AF8A-73E0A566F3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7EC835-2C82-4CCE-A8D2-1ABEA9929B4F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7775,18 +7775,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAC8BEEB-3FCD-453F-8552-F1D2FD21B16B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA6BCD04-7745-44EE-99FA-B7A2526F589B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A835E945-58E3-4658-A761-26EE1AA46501}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{301CB2E5-18F1-4770-B9C4-FF319D9161BA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A2E8996F-87FB-4C7C-97C3-CE0590F23948}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83085C11-18AD-48F9-A339-4C795D03EA95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68CF1197-72DD-4F25-B076-1A53CF6D781B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BB082C8-78F8-49C3-B518-3D6D8F377078}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C0FCD98-06EF-412C-AA1B-C6AF50161AC5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{669F3BBD-79FF-4F5D-A4FC-5D9EECF6D387}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93942B95-46B3-4F5A-97C5-F84FB55FCD33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F48526F2-AFC4-4F70-B88F-A90F948789EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13CDB950-D47E-44EB-92F1-CEBC088191B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{243BF4ED-801B-4C8E-882B-801037C3090A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4FE74FA8-C676-4208-A528-5193BA7E62EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D48540B-2410-4FBA-9711-B01E48F07690}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{37280963-D79B-4DCA-AA5F-DA10C44CB074}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BA5D2AC-4FB3-4A14-9898-B382BD9B5302}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34B77A04-62FB-473C-9E72-734FEAEC175E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{004B7FBD-0994-45E7-817D-E95467E6D079}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1401A9AF-064B-459F-8753-EC598EFFBB6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD33614F-74D3-4C08-BB3F-AF0061092006}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EBE5494-A478-4A0B-BD8D-D52FC85DF83F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E8A91AF-3F22-4603-A13C-B1B39468D437}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7799,7 +7799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ACED32-0FC0-448B-A148-67177AD1AE54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB1ED08-3F11-4475-AE8C-F2FA0A6F48B7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9068,18 +9068,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A57E4AD-9ABF-4F5B-8600-B17E19587E25}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A637B76B-31E4-401F-9B9C-3E831D0B419A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B55CD601-92FD-4C95-979F-D3182F2E9643}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BA89D65-502C-4B73-9713-0A296E9CD199}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F1F7484A-B75B-41AE-AB85-E624D520FF1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80C887E7-A7B2-4A22-BBCE-0D984A8E6AC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AA5A44E-859B-4309-BA75-89B44EEF33EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{868F5A31-F890-4ABF-83BC-1404ADC088AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98192E06-6AFE-4920-A341-8DAFA34CFC95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF48A4A0-ACEF-40C9-83D5-23419E8C8C5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54102A09-17B6-47B5-BA66-8D2252A8837D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{439E398F-D6A5-45A8-9EE5-78AFA18914B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BEC3199-C714-4AEA-B7F0-77A20A9E6256}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7212DD79-EB5D-4C39-83F0-A9E5BEF23320}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ECA98415-AD71-4DF5-8F4F-2FBF4EB91606}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{882762BB-BA97-42DF-B509-06C712C32296}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CE354191-91AE-4F8F-B24C-BDE58766BEB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{54EA5972-A738-4527-9C50-8D0516AEF90E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F1667C3-C8B2-4C53-80FF-C741D6FE5DB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52EBBC01-6724-437F-A936-F92EE5AE49CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABC8BB71-D3F8-400D-A8C4-B35760EFEF9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F062CB3B-D164-4E2B-802D-B7F414B52C79}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76386A28-11D8-421D-9EC8-41BC397B5350}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94641F9B-04CF-40D1-AADD-54E27F8657F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9092,7 +9092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B8A69E-CC12-4463-AA57-F6B972728BBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB5A328-73D4-4C2A-ABCD-697AA0539015}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10361,18 +10361,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4DA5DA9-63B5-4379-B19A-D9A0387549CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{534221BB-B830-4D29-90D8-989F68CCBD6C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FAF5FF87-1AA4-47EB-B206-A93D3C0422DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A287A141-B395-49CF-AB8A-E2A2EEBFDC60}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{08E90D14-4402-45DB-9908-FFB6277171C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E0BE824-BCE4-47B0-85F7-2806BD137A10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B747853-222F-45F8-BC96-701E4C85DC61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C3A2B63-7061-4EF2-8354-D1C86E7ADB8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D846914-54E8-4A06-9D32-40EBBB305C2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F792CF81-F641-4564-8340-E1AD850D8A56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FC9B5B3-736A-45CB-BB26-CDB9AE19F8D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C096F1C0-6E68-4853-83BD-7FFC328E1568}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0EB9F63-2B2B-4EA0-82F5-F819E54600D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D4B53B8-80DF-4706-8F03-6BBBED5D6C09}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78C7473E-B881-4509-828A-68C4344E068F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95495BFB-CA26-48DA-A928-4019F86CBB2F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CBEBF244-BB6E-4AA8-A85F-1FC6F7C5DF0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EFA68AA-9E07-4A5E-8287-C475923ABFD9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC1568B0-9D14-4071-BCAE-341F9F799D93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E37A9E9-C10E-4390-BAA0-EAA4AED456FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82474790-D32D-43A3-95A7-5FE3DA6E9E5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA09A520-328B-4EA3-A19D-4B553FE8D909}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C85C97F2-9E82-42AD-8562-A0CA78DA8791}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79B26AC2-6140-4816-AD51-7A0EED320664}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10385,7 +10385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA1415D-B2B5-4981-AF93-1983F8E6E06F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53497D-75E3-4FBB-AD82-C13CB804DDDA}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11655,18 +11655,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFEBBDE6-153C-4AD0-A177-AEF52F6F0761}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1BDF892-18AB-4FA8-8E4E-7A809DB00309}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{60983227-1A26-4885-91EC-A19750541254}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A96B4F9-7F16-44DE-B163-78595148A524}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C81F68AE-FE8D-4E4E-ABEC-BC2A59B71FAC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14059564-AFE9-4BFA-B3F7-E55EB49D9501}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05D9D6EC-B815-455E-9C39-5394666FB95B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D80C3CF-911C-42F0-828D-341FA1A0C4C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27EED3CF-F863-4F6E-B16B-79F20A455B5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58839903-DA2B-44CB-83A1-9C34253BB45D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA8B02D3-2A71-4A66-8537-A472B49AD737}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC2DE131-0318-4239-8CE5-25FB5692CC56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16461CB5-1C61-4445-A735-675FDEACB02D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06E1FDC2-BCD2-4037-BAE3-DBFA64055611}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3445F8D-DCFC-4013-BA3E-0A2515734A07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A70D3C66-94B1-4953-AA53-332F36A9B5D9}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{340ECB1D-FFDE-4217-B661-3E361711B44E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA6872C6-BBCE-4057-AFB7-9BBE0C0B51A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72101786-5FEA-413D-B829-1A6FB5107B89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1D08F4A-1EAE-418D-A840-1CE8241E331B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55066BA9-6563-4E8B-BAF4-3E109E305F18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C36BF15-4FBB-4F46-8331-BBC35E705923}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E19154C1-F331-4115-9FB8-E082EBA13029}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2C8EBB5-714D-489F-86D4-2C0931A35E66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11679,7 +11679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F33C396-D04B-4B61-9B3F-C0F926D7A205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5532D934-F752-49B6-A6A5-5B50EC83E37C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12949,18 +12949,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B2F2EF4-1BCF-43BA-9E3D-66A68863AE16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F600A841-309D-425A-83A5-1AB097F956AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD00615B-7985-4714-AB74-C5CE418CDABD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C4CE4E9-A254-45F9-959A-0444888684F1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B872CC02-E63C-43B6-BC43-5ADF84D8FA58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48870C60-7E94-4AFC-B48E-774ED1DD252F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EDAFE15-6D74-4B7C-93B0-95D60030F5FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2985AE31-D004-4BDC-9A48-3FC2803FE058}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A57A8B48-E290-457C-BDC8-DC709E1CABEB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B098BA5-77B5-4FEF-9495-12737286533D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A51215C5-8583-48B6-B3B5-BE8D0456641A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F189B6E3-DD65-4702-BD55-B3D57822A805}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F747E673-8F48-46C7-BDFA-EAA9E91EB184}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EEFCA33-2B8D-4B41-8958-AA7DC6C3816F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E19B6E1E-9DA5-4779-9BE0-C2D5C7EBC36E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95004D96-7563-4A40-94EF-22E173D59955}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FE1D090B-3B1B-44D0-B507-1CEF0C9AC1AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{920321D1-D5C1-40F3-B6CD-4551CEBB9841}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E274BDD5-6625-4A5C-8650-FAED11E12385}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5346A4F-7733-4DCF-8C9D-61D6F94BA480}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26F7B51D-DDE7-4DDF-B04D-691A7866FFF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EEFC83FB-E3F6-4AC2-84FF-28B463ED115E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{387E5D9D-2CFD-4840-BDAC-B22B0D423BA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{036981BF-3EF1-4A35-9FB0-BCFC565067EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12973,7 +12973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61CF6EB-6454-4EB1-88B3-8D283CB214FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4C90BB-3978-4CD6-BAE5-F7A05B5C9FD1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14243,18 +14243,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBCA15E8-BC13-4A62-8EFC-263CBA77BC04}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0664B8BA-8672-4219-A860-5DA3F255A23C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D60DBAD5-79DC-465A-ABB1-DEFF54478B9E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD6C3C8F-A544-472D-B399-C4A56C3A84F7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{53B67A4C-CDA3-4FD7-B501-5544FF3C6F7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2CCA523-4402-491A-81E8-D5140994B28D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6C5606E-D6B0-4761-861F-5FA7621813D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A5BAF76-7EFA-4E0C-A1E0-15D09EDAD7AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{786D02A6-544D-4A52-B4E2-F5205116A0A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35D0141C-BAF1-4DD2-9777-8E616F5B08BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3298F66B-AA7B-4BD3-9B60-E5C29F19BC74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{945A110D-5A98-4CCE-B21D-4C93C74B2D10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E002C78-7D5A-43A4-999E-5C9F5196923D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07A97CB7-4ACF-47BC-A173-2314D56901AF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A3B42F11-06F9-4651-9DD2-C3CF3618469A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20EC9EEC-2B6D-4B1D-AFBB-2A75B12AA604}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BCE71EE8-EFA9-490B-8E88-745F2C79046B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60A826A6-11B1-425C-BA8D-671ACC78E13C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D94511F-6B95-4356-B569-64301069C677}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF5E7525-5949-4B28-BD63-0424F530DC05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3974CE0-4D8E-4415-A999-1ED053A9CC4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C78479B2-31A9-4421-8A08-AE9847636E40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26840CE4-2E14-469A-97A7-D56681D4659E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BD8DE3D-8A0A-488F-AC6C-23823BF93696}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14267,7 +14267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A1C60A-CF08-4F4D-8347-2684F699900F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC409681-8BCB-4EF6-9486-61E683B49882}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15537,18 +15537,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61ED28D5-06DA-4E2D-BD9A-15CFDF93D2EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72A83345-3D0F-4D5F-B1C3-FC6C8A0DF673}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D311A44-92EE-4A3E-B27D-C01343B81AB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F0DC408-0AD0-4AE4-BC71-2A13FBB337FD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6CD64BDC-8108-4263-92B2-7C2C2F5A1F83}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B19449A-EB82-413F-B1CD-BC28613AB649}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{758A04AB-DC3F-4ED9-8AF8-BDC2218ED72A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6947F08-1C7B-40EF-8346-0D9C554C3A62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECDF9BEE-9407-4B70-B829-CFFB7264F6D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03B9BB27-EA56-493E-A6EA-EF6F0D612431}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7ACD72FD-A31E-4FA2-8829-F1DB45B34A61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52B2C01C-37B4-487D-9183-EA9A1075C06D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F1E0F8B-38B5-4AB1-BDDC-67305D97C9E3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1508C935-8DF4-42FB-B944-B8AE15097531}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92471A7A-7241-4459-836E-D49642F2F309}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{710FB752-467B-4C59-947E-1A40A2E9B1FE}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C430ECE9-DD89-4B3B-B3D2-77963C63EC00}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59AB87BF-60E5-4785-BC1C-1625A82168A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA05AC1A-B448-4D63-B701-B38C909DAFA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC11535B-787E-43ED-AACB-1DFC8D92B858}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5BFFDE8-20E7-4AD8-8F72-FFF338727E05}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B15EEC3-ED0C-47A6-9C94-D03B648A3308}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BB933F3-02A1-4487-B0EB-15D477BCDDD1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB4E0878-8F1F-4038-A771-4F9A4067EFC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15561,7 +15561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8535F809-5B3D-4394-B559-29813576EBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F8EC81-E419-4F00-B54B-D5D6753021EF}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16831,18 +16831,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A344DC73-9C6E-4C70-A87D-AB4080CB761B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57AEBA9F-6755-4662-B818-596AF2D379D2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2941EA12-ED75-4D08-9CC4-40761F462B49}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC6FDBCA-23E3-434A-AE4C-2D98A7A8C644}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0A2C2744-16CC-479D-9F54-8D60B5127572}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BE9D1C3-611B-4014-9B89-E4D10BA815F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EA9B347-F3CA-4208-A60D-74B12A143C30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9BAAC8A-3677-4E81-9078-E776895148CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3932988A-73EC-4B16-838E-0289770A82BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BF0BA419-4F33-4A87-90E8-C43617A85572}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDD6AC4E-031E-4235-82F2-858D858E1E50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37A2B4D6-BC58-49E7-B598-5B93D0761F72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0DFCE26-EB74-4C3C-946A-0346D1B08BA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB81ED8B-D21E-47A6-861C-634C2258F2F1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{22081C5A-9B0A-457E-80A3-1ED40CC86DA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DCBEA50C-19EE-43AB-813A-F12BDEDB94EB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EA41DA17-B6DC-4CE3-99FD-BDF81259F35C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05D6032F-CB58-4049-9D82-9FB8567025D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{131BCECC-FA71-4699-8FAC-B77CA358A9FD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{542B8963-49A1-435F-A342-014B20D4B852}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A30CF50-F0D3-4F32-A2B4-BBA28F22F321}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19932915-E807-44F7-B318-D8742C755295}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCFAF997-E123-49BB-98E5-734EA7E59C34}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{72CD1896-B9E4-46CB-B83A-A53F66633B94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
